--- a/Integrantes.xlsx
+++ b/Integrantes.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073D1910-E81C-4BFC-9F10-D63F3A4261CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E075372-424D-4B06-A935-ACE58C9FB8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Integrantes" sheetId="1" r:id="rId1"/>
+    <sheet name="Calendario" sheetId="3" r:id="rId2"/>
+    <sheet name="Repositorios" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Integrante</t>
   </si>
@@ -95,59 +96,62 @@
     <t>%</t>
   </si>
   <si>
-    <t>Team_Member</t>
-  </si>
-  <si>
-    <t>Aplicación</t>
-  </si>
-  <si>
-    <t>Aplicación_TeamMember</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Aplicación_Persona</t>
-  </si>
-  <si>
-    <t>Chapter</t>
-  </si>
-  <si>
-    <t>Cal</t>
-  </si>
-  <si>
-    <t>Tribus</t>
-  </si>
-  <si>
-    <t>Squads</t>
-  </si>
-  <si>
-    <t>Tribus/Squad</t>
-  </si>
-  <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Especialidad</t>
-  </si>
-  <si>
-    <t>Chapter Lead</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Formato1</t>
-  </si>
-  <si>
-    <t>Formato2</t>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion </t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>danielabs4995@gmail.com</t>
+  </si>
+  <si>
+    <t>richardbazano@gmail.com</t>
+  </si>
+  <si>
+    <t>giorgio.cespedes@gmail.com</t>
+  </si>
+  <si>
+    <t>percy16s@icloud.com</t>
+  </si>
+  <si>
+    <t>lvargas.05.84@gmail.com</t>
+  </si>
+  <si>
+    <t>davidbrmaru@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/davidbrmaru/ProyectoBCPGrupo1.git</t>
+  </si>
+  <si>
+    <t>Repositorio de Informacion y analisis del proyecto</t>
+  </si>
+  <si>
+    <t>https://github.com/davidbrmaru/ProyectoBCP-SQL.git</t>
+  </si>
+  <si>
+    <t>Repositorio para los scripts de BD y ETLs</t>
+  </si>
+  <si>
+    <t>https://github.com/davidbrmaru/ProyectoBCP-API.git</t>
+  </si>
+  <si>
+    <t>https://github.com/davidbrmaru/ProyectoBCP-WEB.git</t>
+  </si>
+  <si>
+    <t>Repositorio para la solucion APIS</t>
+  </si>
+  <si>
+    <t>Repositorio para la parte Front</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +163,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,18 +229,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -245,10 +260,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}" name="Tabla1" displayName="Tabla1" ref="B2:E8" totalsRowShown="0">
-  <autoFilter ref="B2:E8" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}" name="Tabla1" displayName="Tabla1" ref="B2:F8" totalsRowShown="0">
+  <autoFilter ref="B2:F8" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0995205E-6408-4610-B623-A202F95A2ADE}" name="Integrante"/>
+    <tableColumn id="5" xr3:uid="{271ECFAD-ED86-49AE-A877-7B09E93C4584}" name="Correo"/>
     <tableColumn id="2" xr3:uid="{BD22CA60-AFA4-4B33-A702-774134154F80}" name="Net Core 5"/>
     <tableColumn id="3" xr3:uid="{7A3244E6-F4CF-44AE-9257-BEEF5875D7D8}" name="SQL 2019"/>
     <tableColumn id="4" xr3:uid="{C7CBA51C-54FC-4889-92E3-C742246EFEBF}" name="Angular"/>
@@ -258,11 +274,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EB3056-0DCF-4CE2-A7ED-9AD3518E2B4F}" name="Tabla2" displayName="Tabla2" ref="B13:C18" totalsRowShown="0">
-  <autoFilter ref="B13:C18" xr:uid="{E8EB3056-0DCF-4CE2-A7ED-9AD3518E2B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EB3056-0DCF-4CE2-A7ED-9AD3518E2B4F}" name="Tabla2" displayName="Tabla2" ref="B2:C7" totalsRowShown="0">
+  <autoFilter ref="B2:C7" xr:uid="{E8EB3056-0DCF-4CE2-A7ED-9AD3518E2B4F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CC1CCC86-59DC-4919-92A5-3D96FC51E0AC}" name="Dias"/>
     <tableColumn id="2" xr3:uid="{1CDB837C-1131-49C2-8B5A-7AF106D344D4}" name="Horarios"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E16AD9C9-375C-449F-9B1E-12CA9DA9CD7C}" name="Tabla3" displayName="Tabla3" ref="B2:C6" totalsRowShown="0">
+  <autoFilter ref="B2:C6" xr:uid="{E16AD9C9-375C-449F-9B1E-12CA9DA9CD7C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{48C798FF-7522-41A1-9224-2C2EA46CE629}" name="Repositorio"/>
+    <tableColumn id="2" xr3:uid="{591921C3-347B-4101-A819-2F642625DDC3}" name="Descripcion "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,19 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB54514-FD47-4489-8B6F-C82110692DD4}">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -585,27 +612,33 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -613,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -621,8 +654,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -630,263 +666,266 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>44642</v>
-      </c>
-      <c r="D21" s="5">
-        <v>44643</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{73BA56BE-1A6C-431D-A36B-63872F1E65C3}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{7C63975A-9798-4446-A8F9-F5AA84690B75}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BE91EB-3F14-4C05-9836-37604688905B}">
-  <dimension ref="B1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C780E-1315-47D9-AFA5-52B7B03C30A5}">
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44642</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44643</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44644</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BE91EB-3F14-4C05-9836-37604688905B}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D3184558-FFF0-43E7-BC4C-CDFC4E9FAD0F}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{7339FFB2-B6B7-415B-A9FD-46645FF4F210}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Integrantes.xlsx
+++ b/Integrantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E075372-424D-4B06-A935-ACE58C9FB8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A59600-F334-4AA6-83EC-348229B714CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Integrante</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>Repositorio para la parte Front</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>giorgiocespedes86</t>
+  </si>
+  <si>
+    <t>lvargas0584</t>
+  </si>
+  <si>
+    <t>Nela4995</t>
+  </si>
+  <si>
+    <t>RichardBazan</t>
+  </si>
+  <si>
+    <t>percy16s</t>
+  </si>
+  <si>
+    <t>davibrmaru</t>
   </si>
 </sst>
 </file>
@@ -260,10 +281,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}" name="Tabla1" displayName="Tabla1" ref="B2:F8" totalsRowShown="0">
-  <autoFilter ref="B2:F8" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}" name="Tabla1" displayName="Tabla1" ref="B2:G8" totalsRowShown="0">
+  <autoFilter ref="B2:G8" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0995205E-6408-4610-B623-A202F95A2ADE}" name="Integrante"/>
+    <tableColumn id="6" xr3:uid="{070BB7A1-1602-4853-9E86-37ADF602DC69}" name="Github"/>
     <tableColumn id="5" xr3:uid="{271ECFAD-ED86-49AE-A877-7B09E93C4584}" name="Correo"/>
     <tableColumn id="2" xr3:uid="{BD22CA60-AFA4-4B33-A702-774134154F80}" name="Net Core 5"/>
     <tableColumn id="3" xr3:uid="{7A3244E6-F4CF-44AE-9257-BEEF5875D7D8}" name="SQL 2019"/>
@@ -592,19 +614,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB54514-FD47-4489-8B6F-C82110692DD4}">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="2" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -612,33 +634,39 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -646,19 +674,22 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -666,59 +697,73 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{73BA56BE-1A6C-431D-A36B-63872F1E65C3}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{7C63975A-9798-4446-A8F9-F5AA84690B75}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{73BA56BE-1A6C-431D-A36B-63872F1E65C3}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{7C63975A-9798-4446-A8F9-F5AA84690B75}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{60FD12A3-1CB6-4EE8-B3C3-C5C27D25D85C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -869,7 +914,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
